--- a/FolderArchitecture2runCode/InputFiles/SpeciesDefinitionFile.xlsx
+++ b/FolderArchitecture2runCode/InputFiles/SpeciesDefinitionFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\Trabalho\Funded\CARMMHA\integrativemodelling\FinalModelRuns\CARMMHAgit\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBD3A5A-878C-44EA-B40A-277B036A2DE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5D681-A8A1-4036-838B-3401BBDAF007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-3015" windowWidth="51840" windowHeight="21240" tabRatio="930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="values" sheetId="32" r:id="rId1"/>
@@ -35,7 +35,6 @@
   <authors>
     <author>tc={B9B7C426-47BA-4521-B1F7-2A389A2A4367}</author>
     <author>tc={CD5CF19A-9F60-4FEE-8330-A3BF39F0CD02}</author>
-    <author>tc={F76610AF-C3F2-43AB-BA41-A8DE405A3B72}</author>
     <author>tc={CA68C946-F89E-42BB-BC70-9CA308F156BC}</author>
     <author>tc={FBDD81FD-7A18-4735-8879-CB35D02C7391}</author>
     <author>tc={9555694C-6EFE-4219-8D3C-BBE6F63D7731}</author>
@@ -59,24 +58,7 @@
     value changed from 0.34 on the 21st April 2021. See email from Len Mon 4/19/2021 12:15 AM replying to Lori (Sun 4/18/2021 10:18 PM)</t>
       </text>
     </comment>
-    <comment ref="C25" authorId="2" shapeId="0" xr:uid="{F76610AF-C3F2-43AB-BA41-A8DE405A3B72}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    #we want this mean and sd
-mean=7.52
-sd=0.274
-sha=(mean^2)/(sd^2)
-sca=(sd^2)/(mean)
-based on 
-Fecundity-related parameters in the bottlenose dolphin population model.
-Len Thomas
-Last compiled on 20 June, 2020
-see also Age1stRepPars.R</t>
-      </text>
-    </comment>
-    <comment ref="W25" authorId="3" shapeId="0" xr:uid="{CA68C946-F89E-42BB-BC70-9CA308F156BC}">
+    <comment ref="W25" authorId="2" shapeId="0" xr:uid="{CA68C946-F89E-42BB-BC70-9CA308F156BC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -84,7 +66,7 @@
     value changed from 0.34 on the 21st April 2021. See email from Len Mon 4/19/2021 12:15 AM replying to Lori (Sun 4/18/2021 10:18 PM)</t>
       </text>
     </comment>
-    <comment ref="AA25" authorId="4" shapeId="0" xr:uid="{FBDD81FD-7A18-4735-8879-CB35D02C7391}">
+    <comment ref="AA25" authorId="3" shapeId="0" xr:uid="{FBDD81FD-7A18-4735-8879-CB35D02C7391}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +74,7 @@
     will come from Richard's analysis</t>
       </text>
     </comment>
-    <comment ref="AO25" authorId="5" shapeId="0" xr:uid="{9555694C-6EFE-4219-8D3C-BBE6F63D7731}">
+    <comment ref="AO25" authorId="4" shapeId="0" xr:uid="{9555694C-6EFE-4219-8D3C-BBE6F63D7731}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -882,7 +864,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,12 +1005,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="43">
@@ -2083,18 +2059,6 @@
   <threadedComment ref="W18" dT="2021-04-21T11:53:29.42" personId="{43E54F80-8E8C-427E-A997-6277C6651A43}" id="{CD5CF19A-9F60-4FEE-8330-A3BF39F0CD02}">
     <text>value changed from 0.34 on the 21st April 2021. See email from Len Mon 4/19/2021 12:15 AM replying to Lori (Sun 4/18/2021 10:18 PM)</text>
   </threadedComment>
-  <threadedComment ref="C25" dT="2020-06-15T12:00:17.63" personId="{43E54F80-8E8C-427E-A997-6277C6651A43}" id="{F76610AF-C3F2-43AB-BA41-A8DE405A3B72}">
-    <text>#we want this mean and sd
-mean=7.52
-sd=0.274
-sha=(mean^2)/(sd^2)
-sca=(sd^2)/(mean)
-based on 
-Fecundity-related parameters in the bottlenose dolphin population model.
-Len Thomas
-Last compiled on 20 June, 2020
-see also Age1stRepPars.R</text>
-  </threadedComment>
   <threadedComment ref="W25" dT="2021-04-21T11:53:29.42" personId="{43E54F80-8E8C-427E-A997-6277C6651A43}" id="{CA68C946-F89E-42BB-BC70-9CA308F156BC}">
     <text>value changed from 0.34 on the 21st April 2021. See email from Len Mon 4/19/2021 12:15 AM replying to Lori (Sun 4/18/2021 10:18 PM)</text>
   </threadedComment>
@@ -2115,41 +2079,41 @@
   <dimension ref="A1:BG34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="8.77734375" style="4"/>
-    <col min="10" max="16" width="8.77734375" style="7"/>
-    <col min="17" max="17" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="21.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.81640625" style="4"/>
+    <col min="10" max="16" width="8.81640625" style="7"/>
+    <col min="17" max="17" width="8.81640625" style="4"/>
     <col min="18" max="18" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="8.77734375" style="4"/>
-    <col min="25" max="25" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="45" width="8.77734375" style="4"/>
-    <col min="46" max="46" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="8.81640625" style="4"/>
+    <col min="25" max="25" width="9.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="45" width="8.81640625" style="4"/>
+    <col min="46" max="46" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="7.109375" style="4" customWidth="1"/>
-    <col min="52" max="52" width="7.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="7.08984375" style="4" customWidth="1"/>
+    <col min="52" max="52" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="35.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="36.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="30.77734375" style="4" customWidth="1"/>
-    <col min="59" max="59" width="27.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="8.77734375" style="4"/>
+    <col min="54" max="54" width="4.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="29.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="35.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="30.81640625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="27.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2328,7 +2292,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -2404,8 +2368,8 @@
       <c r="Y2" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z2" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z2">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA2" s="7">
         <v>0.72</v>
@@ -2507,7 +2471,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>197</v>
       </c>
@@ -2583,8 +2547,8 @@
       <c r="Y3" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z3" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z3" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA3" s="4">
         <v>0.63</v>
@@ -2683,7 +2647,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -2759,8 +2723,8 @@
       <c r="Y4" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z4" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z4" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA4" s="4">
         <v>0.7</v>
@@ -2859,7 +2823,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
@@ -2935,8 +2899,8 @@
       <c r="Y5" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z5" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z5" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA5" s="4">
         <v>0.7</v>
@@ -3035,7 +2999,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>246</v>
       </c>
@@ -3111,8 +3075,8 @@
       <c r="Y6" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z6" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z6" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA6" s="4">
         <v>0.7</v>
@@ -3211,7 +3175,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>182</v>
       </c>
@@ -3287,8 +3251,8 @@
       <c r="Y7" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z7" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z7" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA7" s="7">
         <v>0.7</v>
@@ -3390,7 +3354,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -3466,8 +3430,8 @@
       <c r="Y8" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z8" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z8" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA8" s="7">
         <v>0.7</v>
@@ -3566,7 +3530,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>180</v>
       </c>
@@ -3642,8 +3606,8 @@
       <c r="Y9" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z9" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z9" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA9" s="7">
         <v>0.7</v>
@@ -3745,7 +3709,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>181</v>
       </c>
@@ -3821,8 +3785,8 @@
       <c r="Y10" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z10" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z10" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA10" s="4">
         <v>0.75</v>
@@ -3924,7 +3888,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>177</v>
       </c>
@@ -4000,8 +3964,8 @@
       <c r="Y11" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z11" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z11" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA11" s="4">
         <v>0.63</v>
@@ -4103,7 +4067,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>178</v>
       </c>
@@ -4179,8 +4143,8 @@
       <c r="Y12" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z12" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z12" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA12" s="4">
         <v>0.63</v>
@@ -4282,7 +4246,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -4358,8 +4322,8 @@
       <c r="Y13" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z13" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z13" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA13" s="7">
         <v>0.7</v>
@@ -4461,7 +4425,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -4537,8 +4501,8 @@
       <c r="Y14" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z14" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z14" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA14" s="7">
         <v>0.7</v>
@@ -4637,7 +4601,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -4713,8 +4677,8 @@
       <c r="Y15" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z15" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z15" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA15" s="7">
         <v>0.63</v>
@@ -4813,7 +4777,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
@@ -4889,8 +4853,8 @@
       <c r="Y16" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z16" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z16" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA16" s="4">
         <v>0.75</v>
@@ -4989,7 +4953,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -5065,8 +5029,8 @@
       <c r="Y17" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z17" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z17" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA17" s="4">
         <v>0.7</v>
@@ -5165,7 +5129,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>189</v>
       </c>
@@ -5345,7 +5309,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -5421,8 +5385,8 @@
       <c r="Y19" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z19" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z19">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA19" s="7">
         <v>0.75</v>
@@ -5521,7 +5485,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
@@ -5597,8 +5561,8 @@
       <c r="Y20" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z20" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z20" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA20" s="4">
         <v>0.75</v>
@@ -5697,7 +5661,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>161</v>
       </c>
@@ -5773,8 +5737,8 @@
       <c r="Y21" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z21" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z21" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA21" s="4">
         <v>0.75</v>
@@ -5873,7 +5837,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>65</v>
       </c>
@@ -5949,8 +5913,8 @@
       <c r="Y22" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z22" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z22" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA22" s="4">
         <v>0.75</v>
@@ -6049,7 +6013,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>38</v>
       </c>
@@ -6125,8 +6089,8 @@
       <c r="Y23" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z23" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z23" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA23" s="7">
         <v>0.7</v>
@@ -6225,7 +6189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>57</v>
       </c>
@@ -6301,8 +6265,8 @@
       <c r="Y24" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z24" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z24" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA24" s="4">
         <v>0.75</v>
@@ -6401,18 +6365,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="4">
-        <v>753.24199999999996</v>
-      </c>
-      <c r="D25" s="4">
-        <v>9.9835110000000005E-3</v>
+      <c r="C25">
+        <v>980.35320549999994</v>
+      </c>
+      <c r="D25">
+        <v>8.7495999999999997E-3</v>
       </c>
       <c r="E25" s="4">
         <v>48</v>
@@ -6477,8 +6441,8 @@
       <c r="Y25" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z25" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z25" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA25" s="10">
         <v>0.7</v>
@@ -6577,7 +6541,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>179</v>
       </c>
@@ -6653,8 +6617,8 @@
       <c r="Y26" s="4">
         <v>6.34</v>
       </c>
-      <c r="Z26" s="4">
-        <v>0.85299999999999998</v>
+      <c r="Z26" s="1">
+        <v>1.1723330000000001</v>
       </c>
       <c r="AA26" s="4">
         <v>0.63</v>
@@ -6756,7 +6720,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.35">
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
@@ -6765,10 +6729,10 @@
       <c r="AF27" s="7"/>
       <c r="BD27" s="7"/>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.35">
       <c r="BD28" s="7"/>
     </row>
-    <row r="34" spans="18:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="18:33" x14ac:dyDescent="0.35">
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
@@ -6804,16 +6768,16 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="91.21875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="91.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="92" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -6830,7 +6794,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6847,7 +6811,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6864,7 +6828,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
@@ -6881,7 +6845,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -6898,7 +6862,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>184</v>
       </c>
@@ -6915,7 +6879,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -6932,7 +6896,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>187</v>
       </c>
@@ -6949,7 +6913,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -6966,7 +6930,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -6983,7 +6947,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -7000,7 +6964,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -7017,7 +6981,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -7034,7 +6998,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -7051,7 +7015,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -7068,7 +7032,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -7085,7 +7049,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -7102,7 +7066,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -7119,7 +7083,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -7136,7 +7100,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -7153,7 +7117,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -7170,7 +7134,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -7187,7 +7151,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -7204,7 +7168,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -7221,7 +7185,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
@@ -7235,7 +7199,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -7249,7 +7213,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
@@ -7263,7 +7227,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
@@ -7277,7 +7241,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>88</v>
       </c>
@@ -7291,7 +7255,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>86</v>
       </c>
@@ -7305,7 +7269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
@@ -7319,7 +7283,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>242</v>
       </c>
@@ -7336,7 +7300,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>243</v>
       </c>
@@ -7353,7 +7317,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -7370,7 +7334,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -7387,7 +7351,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
@@ -7404,7 +7368,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -7421,7 +7385,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -7435,7 +7399,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>108</v>
       </c>
@@ -7449,7 +7413,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>109</v>
       </c>
@@ -7463,7 +7427,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>110</v>
       </c>
@@ -7477,7 +7441,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -7491,7 +7455,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -7508,7 +7472,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>145</v>
       </c>
@@ -7525,7 +7489,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>148</v>
       </c>
@@ -7542,7 +7506,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>149</v>
       </c>
@@ -7559,7 +7523,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>150</v>
       </c>
@@ -7573,7 +7537,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>151</v>
       </c>
@@ -7588,7 +7552,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -7603,7 +7567,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -7618,7 +7582,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>192</v>
       </c>
@@ -7635,7 +7599,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>191</v>
       </c>
@@ -7652,7 +7616,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>229</v>
       </c>
@@ -7666,7 +7630,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>230</v>
       </c>
@@ -7680,7 +7644,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>231</v>
       </c>
@@ -7694,7 +7658,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>17</v>
       </c>
@@ -7711,7 +7675,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>15</v>
       </c>
@@ -7728,7 +7692,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -7742,7 +7706,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>73</v>
       </c>
@@ -7756,7 +7720,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>211</v>
       </c>

--- a/FolderArchitecture2runCode/InputFiles/SpeciesDefinitionFile.xlsx
+++ b/FolderArchitecture2runCode/InputFiles/SpeciesDefinitionFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\Trabalho\Funded\CARMMHA\integrativemodelling\FinalModelRuns\CARMMHAgit\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F5D681-A8A1-4036-838B-3401BBDAF007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915BFF65-861F-4CE0-9848-52D4D26045CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-3015" windowWidth="51840" windowHeight="21240" tabRatio="930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11265" tabRatio="930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="values" sheetId="32" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="257">
   <si>
     <t>N</t>
   </si>
@@ -554,310 +554,310 @@
     <t>mean for baseline reproductive success. Superseeds n4brs</t>
   </si>
   <si>
+    <t>mean for post oil spill reproductive success. Superseeds n4pors</t>
+  </si>
+  <si>
+    <t>dedicated analysis by Len</t>
+  </si>
+  <si>
+    <t>sha1str</t>
+  </si>
+  <si>
+    <t>sca1str</t>
+  </si>
+  <si>
+    <t>Sfro</t>
+  </si>
+  <si>
+    <t>Atlantic spotted dolphin</t>
+  </si>
+  <si>
+    <t>Stenella frontalis </t>
+  </si>
+  <si>
+    <t>Blainville's beaked whale</t>
+  </si>
+  <si>
+    <t>Mesoplodon densirostris </t>
+  </si>
+  <si>
+    <t>Bibliography review + dedicated analysis. Cormac Booth and Emily Hague. Email CGB Fri 5/29/2020 11:33 AM</t>
+  </si>
+  <si>
+    <t>Cuvier's beaked whale</t>
+  </si>
+  <si>
+    <t>Dwarf sperm whale</t>
+  </si>
+  <si>
+    <t>Fraser’s dolphin</t>
+  </si>
+  <si>
+    <t>Gervais’ beaked whale</t>
+  </si>
+  <si>
+    <t>Ziphius cavirostris </t>
+  </si>
+  <si>
+    <t>Kogia sima </t>
+  </si>
+  <si>
+    <t>Lagenodelphis hosei </t>
+  </si>
+  <si>
+    <t>Mesoplodon europaeus </t>
+  </si>
+  <si>
+    <t>Pygmy sperm whale</t>
+  </si>
+  <si>
+    <t>Kogia breviceps </t>
+  </si>
+  <si>
+    <t>Mden</t>
+  </si>
+  <si>
+    <t>Meur</t>
+  </si>
+  <si>
+    <t>Zcav</t>
+  </si>
+  <si>
+    <t>Ksim</t>
+  </si>
+  <si>
+    <t>Lhos</t>
+  </si>
+  <si>
+    <t>Kbre</t>
+  </si>
+  <si>
+    <t>Parameter of a shifted beta. The proportion of exposed animals that recover  upper limit</t>
+  </si>
+  <si>
+    <t>alastRep</t>
+  </si>
+  <si>
+    <t>The age at last reproduction (just for Ttru)</t>
+  </si>
+  <si>
+    <t>From Schwacke et al.</t>
+  </si>
+  <si>
+    <t>sdN</t>
+  </si>
+  <si>
+    <t>Bottlenose_dolphin_BB</t>
+  </si>
+  <si>
+    <t>Schwackeetal2017</t>
+  </si>
+  <si>
+    <t>bbsBB</t>
+  </si>
+  <si>
+    <t>absBB</t>
+  </si>
+  <si>
+    <t>Beta a parameter for baseline survival in BB</t>
+  </si>
+  <si>
+    <t>Beta b parameter for baseline survival in BB</t>
+  </si>
+  <si>
+    <t>NOT IMPLEMENTED</t>
+  </si>
+  <si>
+    <t>Atlantic_spotted_dolphin</t>
+  </si>
+  <si>
+    <t>Bwsp</t>
+  </si>
+  <si>
+    <t>Beaked_whales</t>
+  </si>
+  <si>
+    <t>Beaked whales spp</t>
+  </si>
+  <si>
+    <t>beaked whales</t>
+  </si>
+  <si>
+    <t>Clymene_dolphin</t>
+  </si>
+  <si>
+    <t>Kogia_whales</t>
+  </si>
+  <si>
+    <t>Melon-headed_whale</t>
+  </si>
+  <si>
+    <t>Pantropical_spotted_dolphin</t>
+  </si>
+  <si>
+    <t>Pilot_whales</t>
+  </si>
+  <si>
+    <t>Pygmy_killer_whale</t>
+  </si>
+  <si>
+    <t>Rissos_dolphin</t>
+  </si>
+  <si>
+    <t>Rough-toothed_dolphin</t>
+  </si>
+  <si>
+    <t>Spinner_dolphin</t>
+  </si>
+  <si>
+    <t>Striped_dolphin</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>joint as beaked whales Bwsp</t>
+  </si>
+  <si>
+    <t>joint as Kogia sp. Kosp</t>
+  </si>
+  <si>
+    <t>species name, common</t>
+  </si>
+  <si>
+    <t>species name, latin</t>
+  </si>
+  <si>
+    <t>file that contained Lance's code for the analysis of the corresponding species</t>
+  </si>
+  <si>
+    <t>folder that contains inputs and outputs for this species</t>
+  </si>
+  <si>
+    <t>relevant comments about implementation</t>
+  </si>
+  <si>
+    <t>does not apply</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>This is now obtained within the code from the survival probabilities</t>
+  </si>
+  <si>
+    <t>only used up to GOMOSES 2019</t>
+  </si>
+  <si>
+    <t>Although it was elicited, it is not used as we moved from stage to age structured models</t>
+  </si>
+  <si>
+    <t>Now we consider directly mean and standard deviation of distribution (meanbrs, sdbrs, meanpors,sdpors)</t>
+  </si>
+  <si>
+    <t>LCY</t>
+  </si>
+  <si>
+    <t>MPD</t>
+  </si>
+  <si>
+    <t>YTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost cetacean years </t>
+  </si>
+  <si>
+    <t>Table 18 in MMIQT document</t>
+  </si>
+  <si>
+    <t>Not used in model</t>
+  </si>
+  <si>
+    <t>Maximum proportional decrease</t>
+  </si>
+  <si>
+    <t>Years to recovery</t>
+  </si>
+  <si>
+    <t>short finned pilot whale</t>
+  </si>
+  <si>
+    <t>used for BND only</t>
+  </si>
+  <si>
+    <t>Schwacke et al. / IMMQT</t>
+  </si>
+  <si>
+    <t>absr</t>
+  </si>
+  <si>
+    <t>bbsr</t>
+  </si>
+  <si>
+    <t>a of the beta for the baseline survival rate</t>
+  </si>
+  <si>
+    <t>b of the beta  for the baseline survival rate</t>
+  </si>
+  <si>
+    <t>Ggri</t>
+  </si>
+  <si>
+    <t>Color code - note to all: never use color codes in Excel, but rules are made to be broken :) - red means implemented in a group of species; green is a group of species; orange not implemented; yellow implemented as separate stock; blue is for BNDs</t>
+  </si>
+  <si>
+    <t>Applies to BND only</t>
+  </si>
+  <si>
+    <t>used for BND only - scaled up by gestation duration for other species</t>
+  </si>
+  <si>
+    <t>Feresa attenuata</t>
+  </si>
+  <si>
+    <t>From Schwacke et al. (now from Richar Glennie's SCR study)</t>
+  </si>
+  <si>
+    <t>From Schwacke et al. in Speakman et al. (2010).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Schwacke et al. in Speakman et al. (2010) </t>
+  </si>
+  <si>
+    <t>Shape of the gamma for the age at first reproduction / age sexual maturity (just for Ttru)</t>
+  </si>
+  <si>
+    <t>Scale of the gamma for  age at first reproduction / age sexual maturity (just for Ttru)</t>
+  </si>
+  <si>
+    <t>AgeOfSexualMaturity.html/AgeOfSexualMaturity.Rmd</t>
+  </si>
+  <si>
+    <t>Not considered, was 48 years in Schwacke et al., might revisit</t>
+  </si>
+  <si>
+    <t>Just for comparison. SCR estimates are used. BND_InitialPopulation.Rmd/BND_InitialPopulation.html</t>
+  </si>
+  <si>
+    <t>ElectronicSupplement4_GD.html/ElectronicSupplement4_GD.Rmd</t>
+  </si>
+  <si>
+    <t>The baseline survival is currently being taken directly from InOutBySp/Bottlenose_dolphin_BB/PostOilSurv.csv</t>
+  </si>
+  <si>
+    <t>dedicated SCR analysis by Richard Glennie. SurvivalReduction.html/SurvivalReduction.Rmd</t>
+  </si>
+  <si>
+    <t>Color code - note to all: never use color codes in Excel, but rules are made to be broken :) - dark green is a stock in offshore paper, light green is the BB population;</t>
+  </si>
+  <si>
+    <t>used for non-BB BND only</t>
+  </si>
+  <si>
     <t>standard deviation of successes for baseline reproductive success. Superseeds suc4brs</t>
   </si>
   <si>
-    <t>mean for post oil spill reproductive success. Superseeds n4pors</t>
-  </si>
-  <si>
-    <t>standard deviation  for post oil spill reproductive success. Superseeds suc4pors</t>
-  </si>
-  <si>
-    <t>dedicated analysis by Len</t>
-  </si>
-  <si>
-    <t>sha1str</t>
-  </si>
-  <si>
-    <t>sca1str</t>
-  </si>
-  <si>
-    <t>Sfro</t>
-  </si>
-  <si>
-    <t>Atlantic spotted dolphin</t>
-  </si>
-  <si>
-    <t>Stenella frontalis </t>
-  </si>
-  <si>
-    <t>Blainville's beaked whale</t>
-  </si>
-  <si>
-    <t>Mesoplodon densirostris </t>
-  </si>
-  <si>
-    <t>Bibliography review + dedicated analysis. Cormac Booth and Emily Hague. Email CGB Fri 5/29/2020 11:33 AM</t>
-  </si>
-  <si>
-    <t>Cuvier's beaked whale</t>
-  </si>
-  <si>
-    <t>Dwarf sperm whale</t>
-  </si>
-  <si>
-    <t>Fraser’s dolphin</t>
-  </si>
-  <si>
-    <t>Gervais’ beaked whale</t>
-  </si>
-  <si>
-    <t>Ziphius cavirostris </t>
-  </si>
-  <si>
-    <t>Kogia sima </t>
-  </si>
-  <si>
-    <t>Lagenodelphis hosei </t>
-  </si>
-  <si>
-    <t>Mesoplodon europaeus </t>
-  </si>
-  <si>
-    <t>Pygmy sperm whale</t>
-  </si>
-  <si>
-    <t>Kogia breviceps </t>
-  </si>
-  <si>
-    <t>Mden</t>
-  </si>
-  <si>
-    <t>Meur</t>
-  </si>
-  <si>
-    <t>Zcav</t>
-  </si>
-  <si>
-    <t>Ksim</t>
-  </si>
-  <si>
-    <t>Lhos</t>
-  </si>
-  <si>
-    <t>Kbre</t>
-  </si>
-  <si>
-    <t>Parameter of a shifted beta. The proportion of exposed animals that recover  upper limit</t>
-  </si>
-  <si>
-    <t>alastRep</t>
-  </si>
-  <si>
-    <t>The age at last reproduction (just for Ttru)</t>
-  </si>
-  <si>
-    <t>From Schwacke et al.</t>
-  </si>
-  <si>
-    <t>sdN</t>
-  </si>
-  <si>
-    <t>Bottlenose_dolphin_BB</t>
-  </si>
-  <si>
-    <t>Schwackeetal2017</t>
-  </si>
-  <si>
-    <t>dedicated analysis by Richard Glennie</t>
-  </si>
-  <si>
-    <t>bbsBB</t>
-  </si>
-  <si>
-    <t>absBB</t>
-  </si>
-  <si>
-    <t>Beta a parameter for baseline survival in BB</t>
-  </si>
-  <si>
-    <t>Beta b parameter for baseline survival in BB</t>
-  </si>
-  <si>
-    <t>NOT IMPLEMENTED</t>
-  </si>
-  <si>
-    <t>Atlantic_spotted_dolphin</t>
-  </si>
-  <si>
-    <t>Bwsp</t>
-  </si>
-  <si>
-    <t>Beaked_whales</t>
-  </si>
-  <si>
-    <t>Beaked whales spp</t>
-  </si>
-  <si>
-    <t>beaked whales</t>
-  </si>
-  <si>
-    <t>Clymene_dolphin</t>
-  </si>
-  <si>
-    <t>Kogia_whales</t>
-  </si>
-  <si>
-    <t>Melon-headed_whale</t>
-  </si>
-  <si>
-    <t>Pantropical_spotted_dolphin</t>
-  </si>
-  <si>
-    <t>Pilot_whales</t>
-  </si>
-  <si>
-    <t>Pygmy_killer_whale</t>
-  </si>
-  <si>
-    <t>Rissos_dolphin</t>
-  </si>
-  <si>
-    <t>Rough-toothed_dolphin</t>
-  </si>
-  <si>
-    <t>Spinner_dolphin</t>
-  </si>
-  <si>
-    <t>Striped_dolphin</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>joint as beaked whales Bwsp</t>
-  </si>
-  <si>
-    <t>joint as Kogia sp. Kosp</t>
-  </si>
-  <si>
-    <t>species name, common</t>
-  </si>
-  <si>
-    <t>species name, latin</t>
-  </si>
-  <si>
-    <t>file that contained Lance's code for the analysis of the corresponding species</t>
-  </si>
-  <si>
-    <t>folder that contains inputs and outputs for this species</t>
-  </si>
-  <si>
-    <t>relevant comments about implementation</t>
-  </si>
-  <si>
-    <t>does not apply</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>This is now obtained within the code from the survival probabilities</t>
-  </si>
-  <si>
-    <t>only used up to GOMOSES 2019</t>
-  </si>
-  <si>
-    <t>Not considered, was 48 years in Schwacke et la., might revisit</t>
-  </si>
-  <si>
-    <t>Although it was elicited, it is not used as we moved from stage to age structured models</t>
-  </si>
-  <si>
-    <t>Now we consider directly mean and standard deviation of distribution (meanbrs, sdbrs, meanpors,sdpors)</t>
-  </si>
-  <si>
-    <t>Bottlenose dolphin Age at First Reproduction calculations ("DolphinAFR_v2.pdf")</t>
-  </si>
-  <si>
-    <t>Might use the SECR estimates - still pending 15th June 2020</t>
-  </si>
-  <si>
-    <t>Might use the SECR estimates - still pending 15th June 2021</t>
-  </si>
-  <si>
-    <t>LCY</t>
-  </si>
-  <si>
-    <t>MPD</t>
-  </si>
-  <si>
-    <t>YTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost cetacean years </t>
-  </si>
-  <si>
-    <t>Table 18 in MMIQT document</t>
-  </si>
-  <si>
-    <t>Not used in model</t>
-  </si>
-  <si>
-    <t>Maximum proportional decrease</t>
-  </si>
-  <si>
-    <t>Years to recovery</t>
-  </si>
-  <si>
-    <t>short finned pilot whale</t>
-  </si>
-  <si>
-    <t>Shape of the gamma for the age at first reproduction (just for Ttru)</t>
-  </si>
-  <si>
-    <t>Scale of the gamma for  age at first reproduction (just for Ttru)</t>
-  </si>
-  <si>
-    <t>used for BND only</t>
-  </si>
-  <si>
-    <t>Schwacke et al. / IMMQT</t>
-  </si>
-  <si>
-    <t>absr</t>
-  </si>
-  <si>
-    <t>bbsr</t>
-  </si>
-  <si>
-    <t>a of the beta for the baseline survival rate</t>
-  </si>
-  <si>
-    <t>b of the beta  for the baseline survival rate</t>
-  </si>
-  <si>
-    <t>Ggri</t>
-  </si>
-  <si>
-    <t>Color code - note to all: never use color codes in Excel, but rules are made to be broken :) - dark green is a stock in offshore paper, light gree ins the BB population;</t>
-  </si>
-  <si>
-    <t>Color code - note to all: never use color codes in Excel, but rules are made to be broken :) - red means implemented in a group of species; green is a group of species; orange not implemented; yellow implemented as separate stock; blue is for BNDs</t>
-  </si>
-  <si>
-    <t>The baseline survival is currently being taken directly from a dedicated file "BaselineSurvsBB.csv"</t>
-  </si>
-  <si>
-    <t>Active but not this par</t>
-  </si>
-  <si>
-    <t>Applies to BND only</t>
-  </si>
-  <si>
-    <t>used for BND only - scaled up by gestation duration for other species</t>
-  </si>
-  <si>
-    <t>Feresa attenuata</t>
-  </si>
-  <si>
-    <t>From Schwacke et al. (now from Richar Glennie's SCR study)</t>
-  </si>
-  <si>
-    <t>From Schwacke et al. in Speakman et al. (2010).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Schwacke et al. in Speakman et al. (2010) </t>
+    <t>standard deviation for post oil spill reproductive success. Superseeds suc4pors</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1185,18 +1185,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1483,18 +1471,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1506,10 +1487,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1522,12 +1509,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1650,7 +1631,47 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Warning Text 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2079,4297 +2100,4296 @@
   <dimension ref="A1:BG34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
+      <selection pane="bottomRight" activeCell="AZ38" sqref="AZ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="8.81640625" style="4"/>
-    <col min="10" max="16" width="8.81640625" style="7"/>
-    <col min="17" max="17" width="8.81640625" style="4"/>
-    <col min="18" max="18" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="8.81640625" style="4"/>
-    <col min="25" max="25" width="9.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="45" width="8.81640625" style="4"/>
-    <col min="46" max="46" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="7.08984375" style="4" customWidth="1"/>
-    <col min="52" max="52" width="7.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="35.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="30.81640625" style="4" customWidth="1"/>
-    <col min="59" max="59" width="27.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="16384" width="8.81640625" style="4"/>
+    <col min="1" max="1" width="21.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="8.81640625" style="3"/>
+    <col min="10" max="16" width="8.81640625" style="4"/>
+    <col min="17" max="17" width="8.81640625" style="3"/>
+    <col min="18" max="18" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="8.81640625" style="3"/>
+    <col min="25" max="25" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="45" width="8.81640625" style="3"/>
+    <col min="46" max="46" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="7.08984375" style="3" customWidth="1"/>
+    <col min="52" max="52" width="7.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="29.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="35.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="36.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="30.81640625" style="3" customWidth="1"/>
+    <col min="59" max="59" width="27.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="4" t="s">
         <v>87</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AX1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BC1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BG1" s="4" t="s">
-        <v>211</v>
+      <c r="BG1" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>4.55</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="C2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="4">
         <v>26</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>0.48</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="4">
         <v>6.02</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="4">
         <v>0.12</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="4">
         <v>5</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="4">
         <v>10</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="4">
         <v>5</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="4">
         <v>15</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>15</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2" s="4">
+      <c r="R2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X2" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="3">
         <v>6.34</v>
       </c>
       <c r="Z2">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="4">
         <v>0.72</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="4">
         <v>3.0169999999999999</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AD2" s="4">
         <v>2.5099999999999998</v>
       </c>
-      <c r="AE2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK2" s="4">
+      <c r="AE2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK2" s="3">
         <v>0</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AM2" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN2" s="7">
+      <c r="AN2" s="4">
         <v>3.76</v>
       </c>
-      <c r="AO2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT2" s="4">
+      <c r="AO2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT2" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU2" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV2" s="4">
+      <c r="AU2" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV2" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW2" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ2" s="4">
+      <c r="AW2" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ2" s="3">
         <v>705</v>
       </c>
-      <c r="BA2" s="4">
+      <c r="BA2" s="3">
         <v>-0.22</v>
       </c>
-      <c r="BB2" s="4">
+      <c r="BB2" s="3">
         <v>69</v>
       </c>
-      <c r="BC2" s="16" t="s">
+      <c r="BC2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BF2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>195</v>
+      <c r="BF2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="A3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="4">
         <v>1167</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="G3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="3">
         <v>0.11899999999999999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <v>6.02</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="4">
         <v>0.12</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="4">
         <v>5</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="4">
         <v>10</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="4">
         <v>5</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="4">
         <v>15</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>15</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X3" s="4">
+      <c r="R3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="3">
         <v>6.34</v>
       </c>
       <c r="Z3" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="3">
         <v>0.63</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="3">
         <v>4.16</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="3">
         <v>2.96</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK3" s="4">
+      <c r="AE3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK3" s="3">
         <v>0</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AL3" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AM3" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AN3" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AO3" s="3">
         <v>342</v>
       </c>
-      <c r="AP3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT3" s="4">
+      <c r="AP3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT3" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU3" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV3" s="4">
+      <c r="AU3" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV3" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW3" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ3" s="8">
+      <c r="AW3" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ3" s="5">
         <v>7838</v>
       </c>
-      <c r="BA3" s="4">
+      <c r="BA3" s="3">
         <v>-0.06</v>
       </c>
-      <c r="BB3" s="4">
+      <c r="BB3" s="3">
         <v>10</v>
       </c>
-      <c r="BC3" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="BD3" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>198</v>
+      <c r="BC3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD3" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>4.53</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="4">
         <v>1696</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="3">
         <v>3</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.15</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <v>6.02</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="4">
         <v>0.12</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="4">
         <v>5</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="4">
         <v>10</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="4">
         <v>5</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="4">
         <v>15</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>15</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X4" s="4">
+      <c r="R4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="3">
         <v>6.34</v>
       </c>
       <c r="Z4" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="3">
         <v>0.7</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="3">
         <v>4.18</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="3">
         <v>3.61</v>
       </c>
-      <c r="AE4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK4" s="4">
+      <c r="AE4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK4" s="3">
         <v>0</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AL4" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AM4" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AN4" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="3">
         <v>424</v>
       </c>
-      <c r="AP4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT4" s="4">
+      <c r="AP4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT4" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU4" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV4" s="4">
+      <c r="AU4" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV4" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW4" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ4" s="8">
+      <c r="AW4" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ4" s="5">
         <v>2501</v>
       </c>
-      <c r="BA4" s="4">
+      <c r="BA4" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="BB4" s="4">
+      <c r="BB4" s="3">
         <v>29</v>
       </c>
-      <c r="BC4" s="10" t="s">
+      <c r="BC4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="BD4" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="BE4" s="4" t="s">
+      <c r="BD4" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="BE4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="BF4" s="4" t="s">
-        <v>206</v>
+      <c r="BF4" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4.53</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="4">
         <v>1641</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <v>6.02</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="4">
         <v>0.12</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="4">
         <v>5</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="4">
         <v>10</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="4">
         <v>5</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="4">
         <v>15</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>15</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X5" s="4">
+      <c r="R5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="3">
         <v>6.34</v>
       </c>
       <c r="Z5" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="3">
         <v>0.7</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="3">
         <v>4.18</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5" s="3">
         <v>3.61</v>
       </c>
-      <c r="AE5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK5" s="4">
+      <c r="AE5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK5" s="3">
         <v>0</v>
       </c>
-      <c r="AL5" s="4">
+      <c r="AL5" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AM5" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN5" s="7">
+      <c r="AN5" s="4">
         <v>3.76</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AO5" s="4">
         <v>453</v>
       </c>
-      <c r="AP5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT5" s="4">
+      <c r="AP5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT5" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU5" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV5" s="4">
+      <c r="AU5" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV5" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW5" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ5" s="8">
+      <c r="AW5" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ5" s="5">
         <v>5304</v>
       </c>
-      <c r="BA5" s="4">
+      <c r="BA5" s="3">
         <v>-0.03</v>
       </c>
-      <c r="BB5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC5" s="10" t="s">
+      <c r="BB5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BD5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BD5" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF5" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>4.97</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="4">
         <v>1848</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <v>6.02</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="4">
         <v>0.12</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="4">
         <v>5</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="4">
         <v>10</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="4">
         <v>5</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="4">
         <v>15</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>15</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" s="4">
+      <c r="R6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X6" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="3">
         <v>6.34</v>
       </c>
       <c r="Z6" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="3">
         <v>0.7</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="3">
         <v>4.18</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="3">
         <v>3.61</v>
       </c>
-      <c r="AE6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK6" s="4">
+      <c r="AE6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK6" s="3">
         <v>0</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AL6" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AM6" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AN6" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AO6" s="3">
         <v>418</v>
       </c>
-      <c r="AP6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT6" s="4">
+      <c r="AP6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT6" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU6" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV6" s="4">
+      <c r="AU6" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV6" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW6" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ6" s="8">
+      <c r="AW6" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ6" s="5">
         <v>6258</v>
       </c>
-      <c r="BA6" s="4">
+      <c r="BA6" s="3">
         <v>-0.03</v>
       </c>
-      <c r="BB6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC6" s="10" t="s">
+      <c r="BB6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="BD6" s="17" t="s">
+      <c r="BD6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="BE6" s="4" t="s">
+      <c r="BE6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BF6" s="4" t="s">
-        <v>207</v>
+      <c r="BF6" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="A7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="4">
         <v>6.02</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="4">
         <v>0.12</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="4">
         <v>5</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="4">
         <v>10</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="4">
         <v>5</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="4">
         <v>15</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>15</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X7" s="4">
+      <c r="R7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <v>6.34</v>
       </c>
       <c r="Z7" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="4">
         <v>0.7</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="4">
         <v>4.18</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="4">
         <v>3.61</v>
       </c>
-      <c r="AE7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK7" s="4">
+      <c r="AE7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK7" s="3">
         <v>0</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AL7" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AM7" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AN7" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT7" s="4">
+      <c r="AO7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT7" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU7" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV7" s="4">
+      <c r="AU7" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV7" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW7" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC7" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="BD7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>213</v>
+      <c r="AW7" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>2.3199999999999998</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="C8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="4">
         <v>6690</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="3">
         <v>1.5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.151</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <v>6.02</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="4">
         <v>0.12</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="4">
         <v>5</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="4">
         <v>10</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="4">
         <v>5</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="4">
         <v>15</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>15</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X8" s="4">
+      <c r="R8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="3">
         <v>6.34</v>
       </c>
       <c r="Z8" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="4">
         <v>0.7</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="4">
         <v>4.18</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="4">
         <v>3.61</v>
       </c>
-      <c r="AE8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK8" s="4">
+      <c r="AE8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK8" s="3">
         <v>0</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AL8" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM8" s="4">
+      <c r="AM8" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN8" s="7">
+      <c r="AN8" s="4">
         <v>3.76</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AO8" s="4">
         <v>348</v>
       </c>
-      <c r="AP8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT8" s="4">
+      <c r="AP8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT8" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU8" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV8" s="4">
+      <c r="AU8" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV8" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW8" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ8" s="8">
+      <c r="AW8" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ8" s="5">
         <v>49100</v>
       </c>
-      <c r="BA8" s="4">
+      <c r="BA8" s="3">
         <v>-0.06</v>
       </c>
-      <c r="BB8" s="4">
+      <c r="BB8" s="3">
         <v>11</v>
       </c>
-      <c r="BC8" s="12" t="s">
+      <c r="BC8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="BD8" s="17" t="s">
+      <c r="BD8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="BE8" s="4" t="s">
+      <c r="BE8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BF8" s="4" t="s">
-        <v>202</v>
+      <c r="BF8" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="A9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="4">
         <v>6.02</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>0.12</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="4">
         <v>5</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="4">
         <v>10</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="4">
         <v>5</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="4">
         <v>15</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>15</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X9" s="4">
+      <c r="R9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X9" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>6.34</v>
       </c>
       <c r="Z9" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="4">
         <v>0.7</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="4">
         <v>4.18</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AD9" s="4">
         <v>3.61</v>
       </c>
-      <c r="AE9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK9" s="4">
+      <c r="AE9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK9" s="3">
         <v>0</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AL9" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM9" s="4">
+      <c r="AM9" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AN9" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT9" s="4">
+      <c r="AO9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT9" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU9" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV9" s="4">
+      <c r="AU9" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV9" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW9" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC9" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD9" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>213</v>
+      <c r="AW9" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC9" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="A10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="4">
         <v>6.02</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="4">
         <v>0.12</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="4">
         <v>5</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="4">
         <v>10</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="4">
         <v>5</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="4">
         <v>15</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>15</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X10" s="4">
+      <c r="R10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X10" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="3">
         <v>6.34</v>
       </c>
       <c r="Z10" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="3">
         <v>0.75</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AC10" s="3">
         <v>4.3704390000000002</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD10" s="3">
         <v>3.5804640000000001</v>
       </c>
-      <c r="AE10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK10" s="4">
+      <c r="AE10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK10" s="3">
         <v>0</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AL10" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM10" s="4">
+      <c r="AM10" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN10" s="4">
+      <c r="AN10" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="AO10" s="3">
         <v>380</v>
       </c>
-      <c r="AP10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT10" s="4">
+      <c r="AP10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT10" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU10" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV10" s="4">
+      <c r="AU10" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV10" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW10" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC10" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="BE10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG10" s="4" t="s">
-        <v>195</v>
+      <c r="AW10" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC10" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="A11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="4">
         <v>6.02</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="4">
         <v>0.12</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="4">
         <v>5</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="4">
         <v>10</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="4">
         <v>5</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="4">
         <v>15</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>15</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X11" s="4">
+      <c r="R11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X11" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <v>6.34</v>
       </c>
       <c r="Z11" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="3">
         <v>0.63</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AB11" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AC11" s="3">
         <v>4.16</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AD11" s="3">
         <v>2.96</v>
       </c>
-      <c r="AE11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK11" s="4">
+      <c r="AE11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK11" s="3">
         <v>0</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AL11" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM11" s="4">
+      <c r="AM11" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN11" s="4">
+      <c r="AN11" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO11" s="4">
+      <c r="AO11" s="3">
         <v>342</v>
       </c>
-      <c r="AP11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT11" s="4">
+      <c r="AP11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT11" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU11" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV11" s="4">
+      <c r="AU11" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV11" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW11" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC11" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="BD11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="BE11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG11" s="4" t="s">
-        <v>212</v>
+      <c r="AW11" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="BD11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG11" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="A12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="4">
         <v>6.02</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="4">
         <v>0.12</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="4">
         <v>5</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="4">
         <v>10</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="4">
         <v>5</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="4">
         <v>15</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>15</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X12" s="4">
+      <c r="R12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="3">
         <v>6.34</v>
       </c>
       <c r="Z12" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12" s="3">
         <v>0.63</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AB12" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AC12" s="3">
         <v>4.16</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AD12" s="3">
         <v>2.96</v>
       </c>
-      <c r="AE12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK12" s="4">
+      <c r="AE12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK12" s="3">
         <v>0</v>
       </c>
-      <c r="AL12" s="4">
+      <c r="AL12" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM12" s="4">
+      <c r="AM12" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN12" s="4">
+      <c r="AN12" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="AO12" s="3">
         <v>342</v>
       </c>
-      <c r="AP12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT12" s="4">
+      <c r="AP12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT12" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU12" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV12" s="4">
+      <c r="AU12" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV12" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW12" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC12" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="BD12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="BE12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG12" s="4" t="s">
-        <v>212</v>
+      <c r="AW12" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC12" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>4.53</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="C13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="4">
         <v>316</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.183</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="4">
         <v>6.02</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="4">
         <v>0.12</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="4">
         <v>5</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="4">
         <v>10</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="4">
         <v>5</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="4">
         <v>15</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>15</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X13" s="4">
+      <c r="R13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X13" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <v>6.34</v>
       </c>
       <c r="Z13" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="4">
         <v>0.7</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="4">
         <v>4.18</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AD13" s="4">
         <v>3.61</v>
       </c>
-      <c r="AE13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK13" s="4">
+      <c r="AE13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK13" s="3">
         <v>0</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AL13" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AM13" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN13" s="7">
+      <c r="AN13" s="4">
         <v>3.76</v>
       </c>
-      <c r="AO13" s="7">
+      <c r="AO13" s="4">
         <v>437</v>
       </c>
-      <c r="AP13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT13" s="4">
+      <c r="AP13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT13" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU13" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV13" s="4">
+      <c r="AU13" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV13" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW13" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ13" s="8">
+      <c r="AW13" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ13" s="5">
         <v>3422</v>
       </c>
-      <c r="BA13" s="4">
+      <c r="BA13" s="3">
         <v>-0.09</v>
       </c>
-      <c r="BB13" s="4">
+      <c r="BB13" s="3">
         <v>42</v>
       </c>
-      <c r="BC13" s="16" t="s">
+      <c r="BC13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="BD13" s="7" t="s">
+      <c r="BD13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="BE13" s="4" t="s">
+      <c r="BE13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="BF13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG13" s="4" t="s">
-        <v>195</v>
+      <c r="BF13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG13" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>4.53</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="4">
         <v>1696</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.15</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="4">
         <v>6.02</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="4">
         <v>0.12</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="4">
         <v>5</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="4">
         <v>10</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="4">
         <v>5</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="4">
         <v>15</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>15</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X14" s="4">
+      <c r="R14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X14" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="3">
         <v>6.34</v>
       </c>
       <c r="Z14" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="4">
         <v>0.7</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="4">
         <v>4.18</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AD14" s="4">
         <v>3.61</v>
       </c>
-      <c r="AE14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK14" s="4">
+      <c r="AE14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK14" s="3">
         <v>0</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AL14" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM14" s="4">
+      <c r="AM14" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN14" s="7">
+      <c r="AN14" s="4">
         <v>3.76</v>
       </c>
-      <c r="AO14" s="7">
+      <c r="AO14" s="4">
         <v>383</v>
       </c>
-      <c r="AP14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT14" s="4">
+      <c r="AP14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT14" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU14" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV14" s="4">
+      <c r="AU14" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV14" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW14" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ14" s="8">
+      <c r="AW14" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ14" s="5">
         <v>14887</v>
       </c>
-      <c r="BA14" s="4">
+      <c r="BA14" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="BB14" s="4">
+      <c r="BB14" s="3">
         <v>29</v>
       </c>
-      <c r="BC14" s="10" t="s">
+      <c r="BC14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="BD14" s="17" t="s">
+      <c r="BD14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="BE14" s="4" t="s">
+      <c r="BE14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BF14" s="4" t="s">
-        <v>203</v>
+      <c r="BF14" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>6.2249999999999996</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="C15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="3">
         <v>1616</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="3">
         <v>3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0.161</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="4">
         <v>6.02</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="4">
         <v>0.12</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="4">
         <v>5</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="4">
         <v>10</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="4">
         <v>5</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="4">
         <v>15</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>15</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X15" s="4">
+      <c r="R15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X15" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="3">
         <v>6.34</v>
       </c>
       <c r="Z15" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AA15" s="4">
         <v>0.63</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AC15" s="4">
         <v>4.16</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AD15" s="4">
         <v>2.96</v>
       </c>
-      <c r="AE15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG15" s="4">
+      <c r="AE15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG15" s="3">
         <v>0.96499999999999997</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AH15" s="3">
         <v>0.98899999999999999</v>
       </c>
-      <c r="AI15" s="4">
+      <c r="AI15" s="3">
         <v>4.01</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AJ15" s="3">
         <v>1.75</v>
       </c>
-      <c r="AK15" s="4">
+      <c r="AK15" s="3">
         <v>0</v>
       </c>
-      <c r="AL15" s="4">
+      <c r="AL15" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM15" s="4">
+      <c r="AM15" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN15" s="7">
+      <c r="AN15" s="4">
         <v>3.76</v>
       </c>
-      <c r="AO15" s="7">
+      <c r="AO15" s="4">
         <v>483</v>
       </c>
-      <c r="AP15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT15" s="4">
+      <c r="AP15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT15" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU15" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV15" s="4">
+      <c r="AU15" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV15" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW15" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ15" s="8">
+      <c r="AW15" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ15" s="5">
         <v>13197</v>
       </c>
-      <c r="BA15" s="4">
+      <c r="BA15" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="BB15" s="4">
+      <c r="BB15" s="3">
         <v>21</v>
       </c>
-      <c r="BC15" s="10" t="s">
+      <c r="BC15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BD15" s="17" t="s">
+      <c r="BD15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="BE15" s="4" t="s">
+      <c r="BE15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BF15" s="4" t="s">
+      <c r="BF15" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>4.0549999999999997</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="C16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="4">
         <v>33382</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="3">
         <v>2.5</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.19600000000000001</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="4">
         <v>6.02</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="4">
         <v>0.12</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="4">
         <v>5</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="4">
         <v>10</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="4">
         <v>5</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="4">
         <v>15</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>15</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X16" s="4">
+      <c r="R16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X16" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="3">
         <v>6.34</v>
       </c>
       <c r="Z16" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16" s="3">
         <v>0.75</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AB16" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AC16" s="3">
         <v>4.3704390000000002</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AD16" s="3">
         <v>3.5804640000000001</v>
       </c>
-      <c r="AE16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK16" s="4">
+      <c r="AE16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK16" s="3">
         <v>0</v>
       </c>
-      <c r="AL16" s="4">
+      <c r="AL16" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM16" s="4">
+      <c r="AM16" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN16" s="4">
+      <c r="AN16" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO16" s="4">
+      <c r="AO16" s="3">
         <v>345</v>
       </c>
-      <c r="AP16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT16" s="4">
+      <c r="AP16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT16" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU16" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV16" s="4">
+      <c r="AU16" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV16" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW16" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ16" s="8">
+      <c r="AW16" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ16" s="5">
         <v>363780</v>
       </c>
-      <c r="BA16" s="4">
+      <c r="BA16" s="3">
         <v>-0.09</v>
       </c>
-      <c r="BB16" s="4">
+      <c r="BB16" s="3">
         <v>39</v>
       </c>
-      <c r="BC16" s="10" t="s">
+      <c r="BC16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BD16" s="17" t="s">
+      <c r="BD16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="BE16" s="4" t="s">
+      <c r="BE16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BF16" s="4" t="s">
-        <v>204</v>
+      <c r="BF16" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>4.97</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="C17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="4">
         <v>2414</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.40899999999999997</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="4">
         <v>6.02</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <v>0.12</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="4">
         <v>5</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="4">
         <v>10</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="4">
         <v>5</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="4">
         <v>15</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>15</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X17" s="4">
+      <c r="R17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X17" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="3">
         <v>6.34</v>
       </c>
       <c r="Z17" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="3">
         <v>0.7</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AB17" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AC17" s="3">
         <v>4.18</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AD17" s="3">
         <v>3.61</v>
       </c>
-      <c r="AE17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK17" s="4">
+      <c r="AE17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK17" s="3">
         <v>0</v>
       </c>
-      <c r="AL17" s="4">
+      <c r="AL17" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM17" s="4">
+      <c r="AM17" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN17" s="4">
+      <c r="AN17" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO17" s="4">
+      <c r="AO17" s="3">
         <v>376</v>
       </c>
-      <c r="AP17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT17" s="4">
+      <c r="AP17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT17" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU17" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV17" s="4">
+      <c r="AU17" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV17" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW17" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ17" s="8">
+      <c r="AW17" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ17" s="5">
         <v>50464</v>
       </c>
-      <c r="BA17" s="4">
+      <c r="BA17" s="3">
         <v>-0.17</v>
       </c>
-      <c r="BB17" s="4">
+      <c r="BB17" s="3">
         <v>54</v>
       </c>
-      <c r="BC17" s="10" t="s">
+      <c r="BC17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BD17" s="17" t="s">
+      <c r="BD17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="BE17" s="4" t="s">
+      <c r="BE17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BF17" s="4" t="s">
-        <v>208</v>
+      <c r="BF17" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="A18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3">
         <v>80000000000</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1E-10</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>48</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="R18" s="4">
+      <c r="F18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R18" s="3">
         <v>0.33</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <v>0.34</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <v>0.41</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>0.13</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>0.24</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <v>0.33</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="3">
         <v>0</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="3">
         <v>6</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="3">
         <v>1</v>
       </c>
-      <c r="AA18" s="7">
+      <c r="AA18" s="4">
         <v>0.7</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AC18" s="4">
         <v>4.18</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AD18" s="4">
         <v>3.61</v>
       </c>
-      <c r="AE18" s="7">
+      <c r="AE18" s="4">
         <v>75.8</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AF18" s="4">
         <v>4.8499999999999996</v>
       </c>
-      <c r="AG18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK18" s="5">
+      <c r="AG18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK18" s="3">
         <v>0</v>
       </c>
-      <c r="AL18" s="5">
+      <c r="AL18" s="3">
         <v>1</v>
       </c>
-      <c r="AM18" s="5">
+      <c r="AM18" s="3">
         <v>175</v>
       </c>
-      <c r="AN18" s="5">
+      <c r="AN18" s="3">
         <v>350</v>
       </c>
-      <c r="AO18" s="4">
+      <c r="AO18" s="3">
         <v>375</v>
       </c>
-      <c r="AP18" s="4">
+      <c r="AP18" s="3">
         <v>22</v>
       </c>
-      <c r="AQ18" s="4">
+      <c r="AQ18" s="3">
         <v>34</v>
       </c>
-      <c r="AR18" s="4">
+      <c r="AR18" s="3">
         <v>5</v>
       </c>
-      <c r="AS18" s="4">
+      <c r="AS18" s="3">
         <v>26</v>
       </c>
-      <c r="AT18" s="4">
+      <c r="AT18" s="3">
         <f>AP18/AQ18</f>
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU18" s="4">
-        <f>AT18*(1-AT18)/AQ18</f>
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV18" s="6">
+      <c r="AU18" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV18" s="3">
         <f>AR18/AS18</f>
         <v>0.19230769230769232</v>
       </c>
-      <c r="AW18" s="6">
+      <c r="AW18" s="3">
         <f>AV18*(1-AV18)/AS18</f>
         <v>5.9740555302685485E-3</v>
       </c>
-      <c r="AX18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC18" s="15" t="s">
+      <c r="AX18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BD18" s="7" t="s">
+      <c r="BD18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BE18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF18" s="4" t="s">
-        <v>189</v>
+      <c r="BE18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF18" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>4.0549999999999997</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="C19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="4">
         <v>3228</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="3">
         <v>2.5</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="4">
         <v>6.02</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="4">
         <v>0.12</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="4">
         <v>5</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="4">
         <v>10</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="4">
         <v>5</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="4">
         <v>15</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>15</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X19" s="4">
+      <c r="R19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X19" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="3">
         <v>6.34</v>
       </c>
       <c r="Z19">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AA19" s="4">
         <v>0.75</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AB19" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="4">
         <v>4.3704390000000002</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AD19" s="4">
         <v>3.5804640000000001</v>
       </c>
-      <c r="AE19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK19" s="4">
+      <c r="AE19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK19" s="3">
         <v>0</v>
       </c>
-      <c r="AL19" s="4">
+      <c r="AL19" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM19" s="4">
+      <c r="AM19" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN19" s="7">
+      <c r="AN19" s="4">
         <v>3.76</v>
       </c>
-      <c r="AO19" s="7">
+      <c r="AO19" s="4">
         <v>346</v>
       </c>
-      <c r="AP19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT19" s="4">
+      <c r="AP19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT19" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU19" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV19" s="4">
+      <c r="AU19" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV19" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW19" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ19" s="8">
+      <c r="AW19" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ19" s="5">
         <v>12167</v>
       </c>
-      <c r="BA19" s="4">
+      <c r="BA19" s="3">
         <v>-0.03</v>
       </c>
-      <c r="BB19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC19" s="10" t="s">
+      <c r="BB19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="BD19" s="17" t="s">
+      <c r="BD19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BE19" s="4" t="s">
+      <c r="BE19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BF19" s="4" t="s">
-        <v>201</v>
+      <c r="BF19" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>4.0549999999999997</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="C20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="4">
         <v>2602</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="3">
         <v>2.5</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.13200000000000001</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="4">
         <v>6.02</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="4">
         <v>0.12</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="4">
         <v>10</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="4">
         <v>5</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="4">
         <v>15</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>15</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X20" s="4">
+      <c r="R20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X20" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y20" s="3">
         <v>6.34</v>
       </c>
       <c r="Z20" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AA20" s="3">
         <v>0.75</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AB20" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AC20" s="3">
         <v>4.3704390000000002</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AD20" s="3">
         <v>3.5804640000000001</v>
       </c>
-      <c r="AE20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK20" s="4">
+      <c r="AE20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK20" s="3">
         <v>0</v>
       </c>
-      <c r="AL20" s="4">
+      <c r="AL20" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM20" s="4">
+      <c r="AM20" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN20" s="4">
+      <c r="AN20" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO20" s="4">
+      <c r="AO20" s="3">
         <v>365</v>
       </c>
-      <c r="AP20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT20" s="4">
+      <c r="AP20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT20" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU20" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV20" s="4">
+      <c r="AU20" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV20" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW20" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ20" s="8">
+      <c r="AW20" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ20" s="5">
         <v>18647</v>
       </c>
-      <c r="BA20" s="4">
+      <c r="BA20" s="3">
         <v>-0.06</v>
       </c>
-      <c r="BB20" s="4">
+      <c r="BB20" s="3">
         <v>14</v>
       </c>
-      <c r="BC20" s="10" t="s">
+      <c r="BC20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BD20" s="17" t="s">
+      <c r="BD20" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BE20" s="4" t="s">
+      <c r="BE20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BF20" s="4" t="s">
-        <v>210</v>
+      <c r="BF20" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="A21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="7">
         <v>0.125</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="4">
         <v>6.02</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="4">
         <v>0.12</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="4">
         <v>5</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="4">
         <v>10</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="4">
         <v>5</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="4">
         <v>15</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>15</v>
       </c>
-      <c r="R21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X21" s="4">
+      <c r="R21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X21" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21" s="3">
         <v>6.34</v>
       </c>
       <c r="Z21" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AA21" s="3">
         <v>0.75</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AB21" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AC21" s="3">
         <v>4.3704390000000002</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AD21" s="3">
         <v>3.5804640000000001</v>
       </c>
-      <c r="AE21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK21" s="4">
+      <c r="AE21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK21" s="3">
         <v>0</v>
       </c>
-      <c r="AL21" s="4">
+      <c r="AL21" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM21" s="4">
+      <c r="AM21" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN21" s="4">
+      <c r="AN21" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO21" s="4">
+      <c r="AO21" s="3">
         <v>365</v>
       </c>
-      <c r="AP21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT21" s="4">
+      <c r="AP21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT21" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU21" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV21" s="4">
+      <c r="AU21" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV21" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW21" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC21" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD21" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF21" s="4" t="s">
-        <v>196</v>
+      <c r="AW21" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD21" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF21" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>4.0549999999999997</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="C22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="4">
         <v>6621</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="3">
         <v>2.5</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.46500000000000002</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="4">
         <v>6.02</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="4">
         <v>0.12</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="4">
         <v>5</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="4">
         <v>10</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="4">
         <v>5</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="4">
         <v>15</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>15</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X22" s="4">
+      <c r="R22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X22" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Y22" s="3">
         <v>6.34</v>
       </c>
       <c r="Z22" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA22" s="3">
         <v>0.75</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AB22" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AC22" s="3">
         <v>4.3704390000000002</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AD22" s="3">
         <v>3.5804640000000001</v>
       </c>
-      <c r="AE22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK22" s="4">
+      <c r="AE22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK22" s="3">
         <v>0</v>
       </c>
-      <c r="AL22" s="4">
+      <c r="AL22" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM22" s="4">
+      <c r="AM22" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN22" s="4">
+      <c r="AN22" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO22" s="4">
+      <c r="AO22" s="3">
         <v>327</v>
       </c>
-      <c r="AP22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT22" s="4">
+      <c r="AP22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT22" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU22" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV22" s="4">
+      <c r="AU22" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV22" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW22" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ22" s="8">
+      <c r="AW22" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ22" s="5">
         <v>188713</v>
       </c>
-      <c r="BA22" s="4">
+      <c r="BA22" s="3">
         <v>-0.23</v>
       </c>
-      <c r="BB22" s="4">
+      <c r="BB22" s="3">
         <v>105</v>
       </c>
-      <c r="BC22" s="10" t="s">
+      <c r="BC22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BD22" s="17" t="s">
+      <c r="BD22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="BE22" s="4" t="s">
+      <c r="BE22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BF22" s="4" t="s">
-        <v>209</v>
+      <c r="BF22" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>4.97</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="C23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="4">
         <v>8467</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="3">
         <v>2</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="4">
         <v>6.02</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="4">
         <v>0.12</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="4">
         <v>5</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="4">
         <v>10</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="4">
         <v>5</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="4">
         <v>15</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>15</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X23" s="4">
+      <c r="R23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X23" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Y23" s="3">
         <v>6.34</v>
       </c>
       <c r="Z23" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA23" s="7">
+      <c r="AA23" s="4">
         <v>0.7</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AB23" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AC23" s="4">
         <v>4.18</v>
       </c>
-      <c r="AD23" s="7">
+      <c r="AD23" s="4">
         <v>3.61</v>
       </c>
-      <c r="AE23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK23" s="4">
+      <c r="AE23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK23" s="3">
         <v>0</v>
       </c>
-      <c r="AL23" s="4">
+      <c r="AL23" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM23" s="4">
+      <c r="AM23" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN23" s="7">
+      <c r="AN23" s="4">
         <v>3.76</v>
       </c>
-      <c r="AO23" s="7">
+      <c r="AO23" s="4">
         <v>375</v>
       </c>
-      <c r="AP23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT23" s="4">
+      <c r="AP23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT23" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU23" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV23" s="4">
+      <c r="AU23" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV23" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW23" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ23" s="8">
+      <c r="AW23" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ23" s="5">
         <v>37668</v>
       </c>
-      <c r="BA23" s="4">
+      <c r="BA23" s="3">
         <v>-0.04</v>
       </c>
-      <c r="BB23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC23" s="13" t="s">
+      <c r="BB23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BD23" s="17" t="s">
+      <c r="BD23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="BE23" s="4" t="s">
+      <c r="BE23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BF23" s="4" t="s">
+      <c r="BF23" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="C24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="4">
         <v>63361</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="3">
         <v>2</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.125</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="4">
         <v>6.02</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="4">
         <v>0.12</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="4">
         <v>5</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="4">
         <v>10</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="4">
         <v>5</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="4">
         <v>15</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>15</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X24" s="4">
+      <c r="R24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X24" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Y24" s="3">
         <v>6.34</v>
       </c>
       <c r="Z24" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA24" s="4">
+      <c r="AA24" s="3">
         <v>0.75</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AB24" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AC24" s="3">
         <v>4.3704390000000002</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AD24" s="3">
         <v>3.5804640000000001</v>
       </c>
-      <c r="AE24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK24" s="4">
+      <c r="AE24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK24" s="3">
         <v>0</v>
       </c>
-      <c r="AL24" s="4">
+      <c r="AL24" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM24" s="4">
+      <c r="AM24" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN24" s="4">
+      <c r="AN24" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO24" s="4">
+      <c r="AO24" s="3">
         <v>375</v>
       </c>
-      <c r="AP24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT24" s="4">
+      <c r="AP24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT24" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU24" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV24" s="4">
+      <c r="AU24" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV24" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW24" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ24" s="8">
+      <c r="AW24" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ24" s="5">
         <v>359996</v>
       </c>
-      <c r="BA24" s="4">
+      <c r="BA24" s="3">
         <v>-0.03</v>
       </c>
-      <c r="BB24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC24" s="13" t="s">
+      <c r="BB24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BD24" s="17" t="s">
+      <c r="BD24" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="BE24" s="4" t="s">
+      <c r="BE24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BF24" s="4" t="s">
+      <c r="BF24" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C25">
@@ -6378,376 +6398,376 @@
       <c r="D25">
         <v>8.7495999999999997E-3</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>48</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>2306</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>169.81</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="H25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" s="3">
         <v>1</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="4">
+      <c r="J25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q25" s="3">
         <v>15</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <v>0.33</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="3">
         <v>0.34</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <v>0.41</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="3">
         <v>0.13</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="3">
         <v>0.24</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="3">
         <v>0.33</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X25" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Y25" s="3">
         <v>6.34</v>
       </c>
       <c r="Z25" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA25" s="10">
+      <c r="AA25" s="7">
         <v>0.7</v>
       </c>
-      <c r="AB25" s="10">
+      <c r="AB25" s="7">
         <v>0.99</v>
       </c>
-      <c r="AC25" s="10">
+      <c r="AC25" s="7">
         <v>4.18</v>
       </c>
-      <c r="AD25" s="10">
+      <c r="AD25" s="7">
         <v>3.61</v>
       </c>
-      <c r="AE25" s="7">
+      <c r="AE25" s="4">
         <v>75.8</v>
       </c>
-      <c r="AF25" s="7">
+      <c r="AF25" s="4">
         <v>4.8499999999999996</v>
       </c>
-      <c r="AG25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK25" s="4">
+      <c r="AG25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK25" s="3">
         <v>0</v>
       </c>
-      <c r="AL25" s="4">
+      <c r="AL25" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AM25" s="4">
+      <c r="AM25" s="3">
         <v>1.17</v>
       </c>
-      <c r="AN25" s="4">
+      <c r="AN25" s="3">
         <v>2.36</v>
       </c>
-      <c r="AO25" s="4">
+      <c r="AO25" s="3">
         <v>375</v>
       </c>
-      <c r="AP25" s="4">
+      <c r="AP25" s="3">
         <v>22</v>
       </c>
-      <c r="AQ25" s="4">
+      <c r="AQ25" s="3">
         <v>34</v>
       </c>
-      <c r="AR25" s="4">
+      <c r="AR25" s="3">
         <v>7</v>
       </c>
-      <c r="AS25" s="4">
+      <c r="AS25" s="3">
         <v>36</v>
       </c>
-      <c r="AT25" s="4">
+      <c r="AT25" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU25" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV25" s="4">
+      <c r="AU25" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV25" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW25" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ25" s="4">
+      <c r="AW25" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ25" s="3">
         <v>31427</v>
       </c>
-      <c r="BA25" s="4">
+      <c r="BA25" s="3">
         <v>-0.498</v>
       </c>
-      <c r="BB25" s="4">
+      <c r="BB25" s="3">
         <v>44</v>
       </c>
-      <c r="BC25" s="14" t="s">
+      <c r="BC25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="BD25" s="12" t="s">
+      <c r="BD25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BE25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF25" s="4" t="s">
-        <v>188</v>
+      <c r="BE25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF25" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="A26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="4">
         <v>6.02</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="4">
         <v>0.12</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="4">
         <v>0.45500000000000002</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="4">
         <v>5</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="4">
         <v>10</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="4">
         <v>5</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="4">
         <v>15</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="3">
         <v>15</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="X26" s="4">
+      <c r="R26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X26" s="3">
         <v>2.5</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y26" s="3">
         <v>6.34</v>
       </c>
       <c r="Z26" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AA26" s="3">
         <v>0.63</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AB26" s="3">
         <v>0.99</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AC26" s="3">
         <v>4.16</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AD26" s="3">
         <v>2.96</v>
       </c>
-      <c r="AE26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK26" s="4">
+      <c r="AE26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK26" s="3">
         <v>0</v>
       </c>
-      <c r="AL26" s="4">
+      <c r="AL26" s="3">
         <v>0.6</v>
       </c>
-      <c r="AM26" s="4">
+      <c r="AM26" s="3">
         <v>1.44</v>
       </c>
-      <c r="AN26" s="4">
+      <c r="AN26" s="3">
         <v>3.76</v>
       </c>
-      <c r="AO26" s="4">
+      <c r="AO26" s="3">
         <v>342</v>
       </c>
-      <c r="AP26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT26" s="4">
+      <c r="AP26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT26" s="3">
         <v>0.6470588235294118</v>
       </c>
-      <c r="AU26" s="4">
-        <v>6.7168736006513333E-3</v>
-      </c>
-      <c r="AV26" s="4">
+      <c r="AU26" s="3">
+        <v>8.1945950000000004E-2</v>
+      </c>
+      <c r="AV26" s="3">
         <v>0.19444444444444445</v>
       </c>
-      <c r="AW26" s="4">
-        <v>4.3509945130315499E-3</v>
-      </c>
-      <c r="AX26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC26" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="BD26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="BE26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG26" s="4" t="s">
-        <v>212</v>
+      <c r="AW26" s="3">
+        <v>6.5919809999999995E-2</v>
+      </c>
+      <c r="AX26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC26" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG26" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="BD27" s="7"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="BD27" s="4"/>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="BD28" s="7"/>
+      <c r="BD28" s="4"/>
     </row>
     <row r="34" spans="18:33" x14ac:dyDescent="0.35">
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG34">
@@ -6764,8 +6784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899DABE4-7FD8-4E75-8254-AD3B5E1176D5}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6774,7 +6794,7 @@
     <col min="2" max="2" width="91.1796875" customWidth="1"/>
     <col min="3" max="3" width="25.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="215.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -6791,7 +6811,7 @@
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -6805,10 +6825,10 @@
         <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -6822,61 +6842,61 @@
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -6890,15 +6910,15 @@
         <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>117</v>
@@ -6907,10 +6927,10 @@
         <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6924,10 +6944,10 @@
         <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -6941,10 +6961,10 @@
         <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -6958,10 +6978,10 @@
         <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -6975,10 +6995,10 @@
         <v>125</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -6992,10 +7012,10 @@
         <v>125</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -7009,10 +7029,10 @@
         <v>125</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -7026,10 +7046,10 @@
         <v>125</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -7043,10 +7063,10 @@
         <v>125</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -7060,10 +7080,10 @@
         <v>125</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -7077,10 +7097,10 @@
         <v>125</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -7094,10 +7114,10 @@
         <v>124</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -7111,10 +7131,10 @@
         <v>124</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -7128,10 +7148,10 @@
         <v>124</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -7145,10 +7165,10 @@
         <v>124</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -7162,10 +7182,10 @@
         <v>124</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -7179,10 +7199,10 @@
         <v>124</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -7240,6 +7260,9 @@
       <c r="D28" t="s">
         <v>93</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -7254,6 +7277,9 @@
       <c r="D29" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -7268,6 +7294,9 @@
       <c r="D30" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -7282,39 +7311,42 @@
       <c r="D31" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -7331,7 +7363,7 @@
         <v>93</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -7348,7 +7380,7 @@
         <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -7365,7 +7397,7 @@
         <v>93</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -7382,7 +7414,7 @@
         <v>93</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -7404,7 +7436,7 @@
         <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>124</v>
@@ -7452,7 +7484,10 @@
         <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -7466,10 +7501,10 @@
         <v>125</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -7483,10 +7518,10 @@
         <v>125</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -7500,10 +7535,10 @@
         <v>125</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -7517,10 +7552,10 @@
         <v>125</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -7534,7 +7569,7 @@
         <v>124</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -7542,14 +7577,14 @@
         <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -7557,14 +7592,14 @@
         <v>152</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -7572,90 +7607,90 @@
         <v>153</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>249</v>
+      <c r="C52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -7663,16 +7698,16 @@
         <v>17</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -7680,16 +7715,16 @@
         <v>15</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -7697,13 +7732,13 @@
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -7711,50 +7746,66 @@
         <v>73</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C60">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Deprecated">
+  <conditionalFormatting sqref="C2:C50 C53:C60">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Deprecated">
       <formula>NOT(ISERROR(SEARCH("Deprecated",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Active">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Active">
       <formula>NOT(ISERROR(SEARCH("Active",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E33 E56:E57 E47:E50 D1:D1048576">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Expert">
+  <conditionalFormatting sqref="E56:E57 E47:E50 D1:D50 D53:D1048576 E28:E33">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Expert">
       <formula>NOT(ISERROR(SEARCH("Expert",D1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Expert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E24">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Expert">
+      <formula>NOT(ISERROR(SEARCH("Expert",E19)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Expert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:C52">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Deprecated">
+      <formula>NOT(ISERROR(SEARCH("Deprecated",C51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Active">
+      <formula>NOT(ISERROR(SEARCH("Active",C51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:E52">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Expert">
-      <formula>NOT(ISERROR(SEARCH("Expert",E19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Expert",D51)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Expert"</formula>

--- a/FolderArchitecture2runCode/InputFiles/SpeciesDefinitionFile.xlsx
+++ b/FolderArchitecture2runCode/InputFiles/SpeciesDefinitionFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tam2\Dropbox\Trabalho\Funded\CARMMHA\integrativemodelling\FinalModelRuns\CARMMHAgit\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915BFF65-861F-4CE0-9848-52D4D26045CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F523688-460D-4051-A6CE-BED60A4B7CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11265" tabRatio="930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-3015" windowWidth="51840" windowHeight="21240" tabRatio="930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="values" sheetId="32" r:id="rId1"/>
@@ -71,7 +71,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    will come from Richard's analysis</t>
+    now comes from Richard's analysis</t>
       </text>
     </comment>
     <comment ref="AO25" authorId="4" shapeId="0" xr:uid="{9555694C-6EFE-4219-8D3C-BBE6F63D7731}">
@@ -851,13 +851,13 @@
     <t>Color code - note to all: never use color codes in Excel, but rules are made to be broken :) - dark green is a stock in offshore paper, light green is the BB population;</t>
   </si>
   <si>
-    <t>used for non-BB BND only</t>
-  </si>
-  <si>
     <t>standard deviation of successes for baseline reproductive success. Superseeds suc4brs</t>
   </si>
   <si>
     <t>standard deviation for post oil spill reproductive success. Superseeds suc4pors</t>
+  </si>
+  <si>
+    <t>used for non-BB BND only. Color coded with conditional formatting for the 3 different feeding ecology groups - see CARMMHA\integrativemodelling\ModelComponents\1 Expert Elicitation Outputs\SurvivalFactorUpdate2022\SurvivalFraction_v2_TAM.pdf</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1631,469 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Warning Text 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="76">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2084,7 +2546,7 @@
     <text>value changed from 0.34 on the 21st April 2021. See email from Len Mon 4/19/2021 12:15 AM replying to Lori (Sun 4/18/2021 10:18 PM)</text>
   </threadedComment>
   <threadedComment ref="AA25" dT="2020-05-27T16:17:04.72" personId="{43E54F80-8E8C-427E-A997-6277C6651A43}" id="{FBDD81FD-7A18-4735-8879-CB35D02C7391}">
-    <text>will come from Richard's analysis</text>
+    <text>now comes from Richard's analysis</text>
   </threadedComment>
   <threadedComment ref="AO25" dT="2020-06-15T14:57:08.01" personId="{43E54F80-8E8C-427E-A997-6277C6651A43}" id="{9555694C-6EFE-4219-8D3C-BBE6F63D7731}">
     <text>Decision reached by consensus on phone call the 15th June 2020</text>
@@ -2099,11 +2561,11 @@
   </sheetPr>
   <dimension ref="A1:BG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ38" sqref="AZ38"/>
+      <selection pane="bottomRight" activeCell="AF45" sqref="AF45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2572,16 +3034,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA3" s="3">
-        <v>0.63</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="AB3" s="3">
         <v>0.99</v>
       </c>
       <c r="AC3" s="3">
-        <v>4.16</v>
+        <v>3.3490000000000002</v>
       </c>
       <c r="AD3" s="3">
-        <v>2.96</v>
+        <v>1.992</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>94</v>
@@ -2748,16 +3210,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA4" s="3">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB4" s="3">
         <v>0.99</v>
       </c>
       <c r="AC4" s="3">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD4" s="3">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>94</v>
@@ -2924,16 +3386,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA5" s="3">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB5" s="3">
         <v>0.99</v>
       </c>
       <c r="AC5" s="3">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD5" s="3">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>94</v>
@@ -3100,16 +3562,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA6" s="3">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB6" s="3">
         <v>0.99</v>
       </c>
       <c r="AC6" s="3">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD6" s="3">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>94</v>
@@ -3276,16 +3738,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA7" s="4">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB7" s="4">
         <v>0.99</v>
       </c>
       <c r="AC7" s="4">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD7" s="4">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>94</v>
@@ -3455,16 +3917,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA8" s="4">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB8" s="4">
         <v>0.99</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD8" s="4">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE8" s="3" t="s">
         <v>94</v>
@@ -3631,16 +4093,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA9" s="4">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB9" s="4">
         <v>0.99</v>
       </c>
       <c r="AC9" s="4">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD9" s="4">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>94</v>
@@ -3810,16 +4272,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA10" s="3">
-        <v>0.75</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="AB10" s="3">
         <v>0.99</v>
       </c>
       <c r="AC10" s="3">
-        <v>4.3704390000000002</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="AD10" s="3">
-        <v>3.5804640000000001</v>
+        <v>2.016</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>94</v>
@@ -3989,16 +4451,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA11" s="3">
-        <v>0.63</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="AB11" s="3">
         <v>0.99</v>
       </c>
       <c r="AC11" s="3">
-        <v>4.16</v>
+        <v>3.3490000000000002</v>
       </c>
       <c r="AD11" s="3">
-        <v>2.96</v>
+        <v>1.992</v>
       </c>
       <c r="AE11" s="3" t="s">
         <v>94</v>
@@ -4168,16 +4630,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA12" s="3">
-        <v>0.63</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="AB12" s="3">
         <v>0.99</v>
       </c>
       <c r="AC12" s="3">
-        <v>4.16</v>
+        <v>3.3490000000000002</v>
       </c>
       <c r="AD12" s="3">
-        <v>2.96</v>
+        <v>1.992</v>
       </c>
       <c r="AE12" s="3" t="s">
         <v>94</v>
@@ -4347,16 +4809,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA13" s="4">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB13" s="4">
         <v>0.99</v>
       </c>
       <c r="AC13" s="4">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD13" s="4">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE13" s="3" t="s">
         <v>94</v>
@@ -4526,16 +4988,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA14" s="4">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB14" s="4">
         <v>0.99</v>
       </c>
       <c r="AC14" s="4">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD14" s="4">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>94</v>
@@ -4702,16 +5164,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA15" s="4">
-        <v>0.63</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="AB15" s="4">
         <v>0.99</v>
       </c>
       <c r="AC15" s="4">
-        <v>4.16</v>
+        <v>3.3490000000000002</v>
       </c>
       <c r="AD15" s="4">
-        <v>2.96</v>
+        <v>1.992</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>94</v>
@@ -4878,16 +5340,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA16" s="3">
-        <v>0.75</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="AB16" s="3">
         <v>0.99</v>
       </c>
       <c r="AC16" s="3">
-        <v>4.3704390000000002</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="AD16" s="3">
-        <v>3.5804640000000001</v>
+        <v>2.016</v>
       </c>
       <c r="AE16" s="3" t="s">
         <v>94</v>
@@ -5054,16 +5516,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA17" s="3">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB17" s="3">
         <v>0.99</v>
       </c>
       <c r="AC17" s="3">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD17" s="3">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE17" s="3" t="s">
         <v>94</v>
@@ -5230,16 +5692,16 @@
         <v>1</v>
       </c>
       <c r="AA18" s="4">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB18" s="4">
         <v>0.99</v>
       </c>
       <c r="AC18" s="4">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD18" s="4">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE18" s="4">
         <v>75.8</v>
@@ -5409,16 +5871,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA19" s="4">
-        <v>0.75</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="AB19" s="4">
         <v>0.99</v>
       </c>
       <c r="AC19" s="4">
-        <v>4.3704390000000002</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="AD19" s="4">
-        <v>3.5804640000000001</v>
+        <v>2.016</v>
       </c>
       <c r="AE19" s="3" t="s">
         <v>94</v>
@@ -5585,16 +6047,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA20" s="3">
-        <v>0.75</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="AB20" s="3">
         <v>0.99</v>
       </c>
       <c r="AC20" s="3">
-        <v>4.3704390000000002</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="AD20" s="3">
-        <v>3.5804640000000001</v>
+        <v>2.016</v>
       </c>
       <c r="AE20" s="3" t="s">
         <v>94</v>
@@ -5761,16 +6223,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA21" s="3">
-        <v>0.75</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="AB21" s="3">
         <v>0.99</v>
       </c>
       <c r="AC21" s="3">
-        <v>4.3704390000000002</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="AD21" s="3">
-        <v>3.5804640000000001</v>
+        <v>2.016</v>
       </c>
       <c r="AE21" s="3" t="s">
         <v>94</v>
@@ -5937,16 +6399,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA22" s="3">
-        <v>0.75</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="AB22" s="3">
         <v>0.99</v>
       </c>
       <c r="AC22" s="3">
-        <v>4.3704390000000002</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="AD22" s="3">
-        <v>3.5804640000000001</v>
+        <v>2.016</v>
       </c>
       <c r="AE22" s="3" t="s">
         <v>94</v>
@@ -6113,16 +6575,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA23" s="4">
-        <v>0.7</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="AB23" s="4">
         <v>0.99</v>
       </c>
       <c r="AC23" s="4">
-        <v>4.18</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AD23" s="4">
-        <v>3.61</v>
+        <v>2.23</v>
       </c>
       <c r="AE23" s="3" t="s">
         <v>94</v>
@@ -6289,16 +6751,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA24" s="3">
-        <v>0.75</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="AB24" s="3">
         <v>0.99</v>
       </c>
       <c r="AC24" s="3">
-        <v>4.3704390000000002</v>
+        <v>3.5150000000000001</v>
       </c>
       <c r="AD24" s="3">
-        <v>3.5804640000000001</v>
+        <v>2.016</v>
       </c>
       <c r="AE24" s="3" t="s">
         <v>94</v>
@@ -6464,16 +6926,16 @@
       <c r="Z25" s="1">
         <v>1.1723330000000001</v>
       </c>
-      <c r="AA25" s="7">
+      <c r="AA25" s="4">
         <v>0.7</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AB25" s="4">
         <v>0.99</v>
       </c>
-      <c r="AC25" s="7">
+      <c r="AC25" s="4">
         <v>4.18</v>
       </c>
-      <c r="AD25" s="7">
+      <c r="AD25" s="4">
         <v>3.61</v>
       </c>
       <c r="AE25" s="4">
@@ -6641,16 +7103,16 @@
         <v>1.1723330000000001</v>
       </c>
       <c r="AA26" s="3">
-        <v>0.63</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="AB26" s="3">
         <v>0.99</v>
       </c>
       <c r="AC26" s="3">
-        <v>4.16</v>
+        <v>3.3490000000000002</v>
       </c>
       <c r="AD26" s="3">
-        <v>2.96</v>
+        <v>1.992</v>
       </c>
       <c r="AE26" s="3" t="s">
         <v>94</v>
@@ -6774,6 +7236,45 @@
     <sortCondition ref="A2:A34"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="AA1:AA1048576">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+      <formula>0.637</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>0.594</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>0.526</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC1:AC1048576">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>3.439</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>3.349</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>3.499</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+      <formula>3.515</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD1:AD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>1.992</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>3.499</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>2.23</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>2.016</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6784,8 +7285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899DABE4-7FD8-4E75-8254-AD3B5E1176D5}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7261,7 +7762,7 @@
         <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -7278,7 +7779,7 @@
         <v>93</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -7295,7 +7796,7 @@
         <v>93</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -7312,7 +7813,7 @@
         <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -7577,7 +8078,7 @@
         <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>124</v>
@@ -7607,7 +8108,7 @@
         <v>153</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>124</v>
@@ -7772,42 +8273,42 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="C2:C50 C53:C60">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Deprecated">
+    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="Deprecated">
       <formula>NOT(ISERROR(SEARCH("Deprecated",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Active">
+    <cfRule type="containsText" dxfId="74" priority="10" operator="containsText" text="Active">
       <formula>NOT(ISERROR(SEARCH("Active",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E57 E47:E50 D1:D50 D53:D1048576 E28:E33">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Expert">
+    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="Expert">
       <formula>NOT(ISERROR(SEARCH("Expert",D1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
       <formula>"Expert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E24">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Expert">
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Expert">
       <formula>NOT(ISERROR(SEARCH("Expert",E19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
       <formula>"Expert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:C52">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Deprecated">
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Deprecated">
       <formula>NOT(ISERROR(SEARCH("Deprecated",C51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Active">
+    <cfRule type="containsText" dxfId="68" priority="4" operator="containsText" text="Active">
       <formula>NOT(ISERROR(SEARCH("Active",C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:E52">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Expert">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="Expert">
       <formula>NOT(ISERROR(SEARCH("Expert",D51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"Expert"</formula>
     </cfRule>
   </conditionalFormatting>
